--- a/data/Senate.xlsx
+++ b/data/Senate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Govt Climate Denialists\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9B2839-8F35-4CD4-AE21-1262FA7AB28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B967D32-608C-4480-BE1B-AC1B270149DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="5625" windowWidth="28800" windowHeight="15435" xr2:uid="{E1023773-23E4-46BF-9D85-6FF2DA1565CC}"/>
+    <workbookView xWindow="6570" yWindow="2370" windowWidth="28800" windowHeight="15435" xr2:uid="{E1023773-23E4-46BF-9D85-6FF2DA1565CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="136">
   <si>
     <t>Hon. Eric Abetz</t>
   </si>
@@ -513,6 +513,15 @@
   </si>
   <si>
     <t>Something of a mixed voting pattern, but leaning more against climate change/environment than for</t>
+  </si>
+  <si>
+    <t>Accuses the weather bureau of rewriting the records, denies the impact of humans on climate change</t>
+  </si>
+  <si>
+    <t>Insists it is the Greens' agenda which has led to the bush fires</t>
+  </si>
+  <si>
+    <t>Unashamedly pro-coal, referring to the bogeyman of climate change in speaking on the fires</t>
   </si>
 </sst>
 </file>
@@ -942,7 +951,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,10 +1237,13 @@
         <v>27</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>130</v>
+      </c>
+      <c r="H12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2039,10 +2051,13 @@
         <v>6</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>131</v>
+      </c>
+      <c r="H47" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2068,7 +2083,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
@@ -2091,7 +2106,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>85</v>
       </c>
@@ -2114,7 +2129,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>86</v>
       </c>
@@ -2137,7 +2152,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>87</v>
       </c>
@@ -2160,7 +2175,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>88</v>
       </c>
@@ -2183,7 +2198,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>90</v>
       </c>
@@ -2206,7 +2221,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
@@ -2229,7 +2244,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -2246,13 +2261,16 @@
         <v>6</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -2275,7 +2293,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -2298,7 +2316,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -2321,7 +2339,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>97</v>
       </c>
@@ -2344,7 +2362,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>99</v>
       </c>
@@ -2367,7 +2385,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>100</v>
       </c>
@@ -2390,7 +2408,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>101</v>
       </c>
@@ -2413,7 +2431,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>102</v>
       </c>

--- a/data/Senate.xlsx
+++ b/data/Senate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Govt Climate Denialists\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B967D32-608C-4480-BE1B-AC1B270149DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CE8DC1-C156-486F-B4DD-2C159221E18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2370" windowWidth="28800" windowHeight="15435" xr2:uid="{E1023773-23E4-46BF-9D85-6FF2DA1565CC}"/>
+    <workbookView xWindow="6225" yWindow="2025" windowWidth="28800" windowHeight="15435" xr2:uid="{E1023773-23E4-46BF-9D85-6FF2DA1565CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="139">
   <si>
     <t>Hon. Eric Abetz</t>
   </si>
@@ -522,6 +522,15 @@
   </si>
   <si>
     <t>Unashamedly pro-coal, referring to the bogeyman of climate change in speaking on the fires</t>
+  </si>
+  <si>
+    <t>Strong advocate of climate conspiracy theories</t>
+  </si>
+  <si>
+    <t>Pauline Hanson has rejected suggestions that climate change has contributed to the bush fires</t>
+  </si>
+  <si>
+    <t>Long history of outspoken climate denial</t>
   </si>
 </sst>
 </file>
@@ -951,7 +960,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,10 +1105,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>129</v>
+      </c>
+      <c r="H6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1341,7 +1353,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -1433,7 +1445,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -1456,7 +1468,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1479,7 +1491,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1502,7 +1514,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1525,7 +1537,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1548,7 +1560,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1571,7 +1583,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -1594,7 +1606,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -1617,7 +1629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -1640,7 +1652,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -1663,7 +1675,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
@@ -1686,7 +1698,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -1703,10 +1715,13 @@
         <v>34</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="s">
         <v>131</v>
+      </c>
+      <c r="H32" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2333,10 +2348,13 @@
         <v>96</v>
       </c>
       <c r="F59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
         <v>131</v>
+      </c>
+      <c r="H59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/Senate.xlsx
+++ b/data/Senate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Govt Climate Denialists\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CE8DC1-C156-486F-B4DD-2C159221E18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D29CD69-56F6-4AE5-964E-AF350131906E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="2025" windowWidth="28800" windowHeight="15435" xr2:uid="{E1023773-23E4-46BF-9D85-6FF2DA1565CC}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E1023773-23E4-46BF-9D85-6FF2DA1565CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="140">
   <si>
     <t>Hon. Eric Abetz</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>Long history of outspoken climate denial</t>
+  </si>
+  <si>
+    <t>“As to whether it is human-induced climate change … 'I'm not relying on evidence' for climate change" - Q&amp;A 3/2/20</t>
   </si>
 </sst>
 </file>
@@ -959,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC1B42C-9515-4F57-AADB-1E0B8EA7A71B}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,10 +2095,13 @@
         <v>83</v>
       </c>
       <c r="F48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
         <v>129</v>
+      </c>
+      <c r="H48" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/Senate.xlsx
+++ b/data/Senate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Govt Climate Denialists\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D29CD69-56F6-4AE5-964E-AF350131906E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6621A3F-4D48-4A1D-8EC7-DED47A38203F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E1023773-23E4-46BF-9D85-6FF2DA1565CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E1023773-23E4-46BF-9D85-6FF2DA1565CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC1B42C-9515-4F57-AADB-1E0B8EA7A71B}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
